--- a/Assets/Excels/Terrain/TerrainInfo.xlsx
+++ b/Assets/Excels/Terrain/TerrainInfo.xlsx
@@ -15,8 +15,107 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ShengZhiXiang</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+初始人口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+初始给的金币
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每回合增长人口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每回合增长的金币</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -24,13 +123,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Food</t>
+    <t>InitialPopulation</t>
+  </si>
+  <si>
+    <t>InitalGold</t>
+  </si>
+  <si>
+    <t>GrowPopulation</t>
+  </si>
+  <si>
+    <t>GrowGold</t>
   </si>
   <si>
     <t>TilePath</t>
@@ -42,7 +144,7 @@
     <t>山川</t>
   </si>
   <si>
-    <t>Tiles/campTiles/t_blue_border</t>
+    <t>Tiles/terrainTiles/forest_unit</t>
   </si>
   <si>
     <t>山丘之王</t>
@@ -51,7 +153,7 @@
     <t>河流</t>
   </si>
   <si>
-    <t>Tiles/campTiles/t_brown_border</t>
+    <t>Tiles/terrainTiles/normalground_unit</t>
   </si>
   <si>
     <t>塔姆</t>
@@ -60,7 +162,7 @@
     <t>沼泽</t>
   </si>
   <si>
-    <t>Tiles/campTiles/t_green_border</t>
+    <t>Tiles/terrainTiles/wetland_unit</t>
   </si>
   <si>
     <t>沼泽爬行者</t>
@@ -69,7 +171,7 @@
     <t>农场</t>
   </si>
   <si>
-    <t>Tiles/campTiles/t_purple_border</t>
+    <t>Tiles/terrainTiles/farm_unit</t>
   </si>
   <si>
     <t>AllRight</t>
@@ -80,12 +182,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,76 +203,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,33 +301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,18 +325,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -247,19 +360,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,19 +450,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +486,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,127 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +551,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,84 +651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,23 +1156,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="23.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="40.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.2222222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,16 +1196,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1098,22 +1216,25 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1121,63 +1242,73 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
